--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/INVENTARIO OCTUBRE ALMACEN Y OBRADOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/INVENTARIO OCTUBRE ALMACEN Y OBRADOR.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-USER1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #10  OCTUBRE 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -398,6 +398,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,7 +423,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="4" builtinId="3"/>
@@ -710,7 +710,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,38 +722,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
@@ -818,7 +818,7 @@
         <v>38</v>
       </c>
       <c r="J4" s="17">
-        <f>H4*I4</f>
+        <f t="shared" ref="J4:J26" si="1">H4*I4</f>
         <v>263587</v>
       </c>
       <c r="K4" s="1"/>
@@ -853,7 +853,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="16">
-        <f>H5*I5</f>
+        <f t="shared" si="1"/>
         <v>747.00000000000011</v>
       </c>
       <c r="K5" s="1"/>
@@ -887,7 +887,7 @@
         <v>63</v>
       </c>
       <c r="J6" s="17">
-        <f>H6*I6</f>
+        <f t="shared" si="1"/>
         <v>1251810</v>
       </c>
       <c r="K6" s="1"/>
@@ -922,7 +922,7 @@
         <v>98</v>
       </c>
       <c r="J7" s="16">
-        <f>H7*I7</f>
+        <f t="shared" si="1"/>
         <v>46334.399999999994</v>
       </c>
       <c r="K7" s="1"/>
@@ -956,7 +956,7 @@
         <v>74</v>
       </c>
       <c r="J8" s="17">
-        <f>H8*I8</f>
+        <f t="shared" si="1"/>
         <v>13246</v>
       </c>
       <c r="K8" s="1"/>
@@ -991,7 +991,7 @@
         <v>90</v>
       </c>
       <c r="J9" s="16">
-        <f>H9*I9</f>
+        <f t="shared" si="1"/>
         <v>26405.999999999996</v>
       </c>
       <c r="K9" s="1"/>
@@ -1026,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="17">
-        <f>H10*I10</f>
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="K10" s="1"/>
@@ -1060,7 +1060,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="16">
-        <f>H11*I11</f>
+        <f t="shared" si="1"/>
         <v>7452</v>
       </c>
       <c r="K11" s="1"/>
@@ -1095,7 +1095,7 @@
         <v>90</v>
       </c>
       <c r="J12" s="17">
-        <f>H12*I12</f>
+        <f t="shared" si="1"/>
         <v>26838.000000000004</v>
       </c>
       <c r="K12" s="1"/>
@@ -1129,7 +1129,7 @@
         <v>80</v>
       </c>
       <c r="J13" s="16">
-        <f>H13*I13</f>
+        <f t="shared" si="1"/>
         <v>249968</v>
       </c>
       <c r="K13" s="1"/>
@@ -1164,7 +1164,7 @@
         <v>80</v>
       </c>
       <c r="J14" s="17">
-        <f>H14*I14</f>
+        <f t="shared" si="1"/>
         <v>280176</v>
       </c>
       <c r="K14" s="1"/>
@@ -1200,7 +1200,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="16">
-        <f>H15*I15</f>
+        <f t="shared" si="1"/>
         <v>536640</v>
       </c>
       <c r="K15" s="1"/>
@@ -1236,7 +1236,7 @@
         <v>84</v>
       </c>
       <c r="J16" s="17">
-        <f>H16*I16</f>
+        <f t="shared" si="1"/>
         <v>41042.400000000001</v>
       </c>
       <c r="K16" s="1"/>
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="16">
-        <f>H17*I17</f>
+        <f t="shared" si="1"/>
         <v>31360</v>
       </c>
       <c r="K17" s="18"/>
@@ -1305,7 +1305,7 @@
         <v>33</v>
       </c>
       <c r="J18" s="17">
-        <f>H18*I18</f>
+        <f t="shared" si="1"/>
         <v>149523</v>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="J19" s="16">
-        <f>H19*I19</f>
+        <f t="shared" si="1"/>
         <v>82813.400000000009</v>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
         <v>45</v>
       </c>
       <c r="J20" s="17">
-        <f>H20*I20</f>
+        <f t="shared" si="1"/>
         <v>3240</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         <v>76</v>
       </c>
       <c r="J21" s="16">
-        <f>H21*I21</f>
+        <f t="shared" si="1"/>
         <v>27481.600000000002</v>
       </c>
     </row>
@@ -1422,17 +1422,17 @@
         <v>70</v>
       </c>
       <c r="J22" s="17">
-        <f>H22*I22</f>
+        <f t="shared" si="1"/>
         <v>27755</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="10">
         <f>SUM(E4:E21)</f>
         <v>2744470.18</v>
@@ -1449,7 +1449,7 @@
         <v>70</v>
       </c>
       <c r="J23" s="16">
-        <f>H23*I23</f>
+        <f t="shared" si="1"/>
         <v>17633</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>97</v>
       </c>
       <c r="J24" s="17">
-        <f>H24*I24</f>
+        <f t="shared" si="1"/>
         <v>21417.600000000002</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         <v>40</v>
       </c>
       <c r="J25" s="16">
-        <f>H25*I25</f>
+        <f t="shared" si="1"/>
         <v>2744</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
         <v>3.8</v>
       </c>
       <c r="J26" s="17">
-        <f>H26*I26</f>
+        <f t="shared" si="1"/>
         <v>9791.0800000000017</v>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
         <v>77</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" ref="J27:J28" si="1">H27*I27</f>
+        <f t="shared" ref="J27:J28" si="2">H27*I27</f>
         <v>97790</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>87</v>
       </c>
       <c r="J28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9204.6</v>
       </c>
       <c r="K28" s="1"/>
@@ -1571,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="J29" s="16">
-        <f>H29*I29</f>
+        <f t="shared" ref="J29:J43" si="3">H29*I29</f>
         <v>15300</v>
       </c>
       <c r="K29" s="1"/>
@@ -1593,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="J30" s="17">
-        <f>H30*I30</f>
+        <f t="shared" si="3"/>
         <v>60356.399999999994</v>
       </c>
       <c r="K30" s="1"/>
@@ -1614,7 +1614,7 @@
         <v>76</v>
       </c>
       <c r="J31" s="16">
-        <f>H31*I31</f>
+        <f t="shared" si="3"/>
         <v>6885.5999999999995</v>
       </c>
       <c r="K31" s="1"/>
@@ -1635,7 +1635,7 @@
         <v>150</v>
       </c>
       <c r="J32" s="17">
-        <f>H32*I32</f>
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
       <c r="K32" s="1"/>
@@ -1657,7 +1657,7 @@
         <v>99</v>
       </c>
       <c r="J33" s="16">
-        <f>H33*I33</f>
+        <f t="shared" si="3"/>
         <v>242114.4</v>
       </c>
       <c r="K33" s="1"/>
@@ -1678,7 +1678,7 @@
         <v>57</v>
       </c>
       <c r="J34" s="17">
-        <f>H34*I34</f>
+        <f t="shared" si="3"/>
         <v>657951</v>
       </c>
       <c r="K34" s="1"/>
@@ -1700,7 +1700,7 @@
         <v>100</v>
       </c>
       <c r="J35" s="16">
-        <f>H35*I35</f>
+        <f t="shared" si="3"/>
         <v>23920</v>
       </c>
       <c r="K35" s="1"/>
@@ -1722,10 +1722,10 @@
         <v>79</v>
       </c>
       <c r="J36" s="17">
-        <f>H36*I36</f>
+        <f t="shared" si="3"/>
         <v>107819.2</v>
       </c>
-      <c r="K36" s="35"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
@@ -1743,10 +1743,10 @@
         <v>170</v>
       </c>
       <c r="J37" s="16">
-        <f>H37*I37</f>
+        <f t="shared" si="3"/>
         <v>5745.9999999999991</v>
       </c>
-      <c r="K37" s="35"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
@@ -1765,10 +1765,10 @@
         <v>120</v>
       </c>
       <c r="J38" s="17">
-        <f>H38*I38</f>
+        <f t="shared" si="3"/>
         <v>21767.999999999996</v>
       </c>
-      <c r="K38" s="35"/>
+      <c r="K38" s="27"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
@@ -1786,10 +1786,10 @@
         <v>160</v>
       </c>
       <c r="J39" s="16">
-        <f>H39*I39</f>
+        <f t="shared" si="3"/>
         <v>25984</v>
       </c>
-      <c r="K39" s="35"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
@@ -1808,10 +1808,10 @@
         <v>125</v>
       </c>
       <c r="J40" s="17">
-        <f>H40*I40</f>
+        <f t="shared" si="3"/>
         <v>22325.000000000004</v>
       </c>
-      <c r="K40" s="35"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
@@ -1829,10 +1829,10 @@
         <v>70</v>
       </c>
       <c r="J41" s="16">
-        <f>H41*I41</f>
+        <f t="shared" si="3"/>
         <v>34650</v>
       </c>
-      <c r="K41" s="35"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
@@ -1851,10 +1851,10 @@
         <v>34</v>
       </c>
       <c r="J42" s="17">
-        <f>H42*I42</f>
+        <f t="shared" si="3"/>
         <v>7677.2000000000007</v>
       </c>
-      <c r="K42" s="35"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G43" s="4" t="s">
@@ -1868,42 +1868,42 @@
         <v>87</v>
       </c>
       <c r="J43" s="16">
-        <f>H43*I43</f>
+        <f t="shared" si="3"/>
         <v>774534.9</v>
       </c>
-      <c r="K43" s="35"/>
+      <c r="K43" s="27"/>
       <c r="M43" s="19"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="10">
         <f>SUM(J4:J43)</f>
         <v>5232907.7800000012</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K47" s="1"/>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="10">
         <f>SUM(J4:J43)</f>
         <v>5232907.7800000012</v>
